--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -451,659 +451,889 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>007499</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>光大保德信风格轮动混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>91.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1.73</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>110023</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达医疗保健行业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>42.92</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006981</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中金新医药股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中金新医药股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000878</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中海医药健康产业精选灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000879</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中海医药健康产业精选灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002305</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003241</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003242</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005967</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华创新驱动混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009861</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009862</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1113,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,15 +1364,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002952</t>
+          <t>206009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信多因子量化股票</t>
+          <t>鹏华新兴产业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.48</t>
+          <t>91.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005028</t>
+          <t>009861</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华研究精选灵活配置混合</t>
+          <t>鹏华新兴成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>44.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>206009</t>
+          <t>005028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华新兴产业混合</t>
+          <t>鹏华研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7298</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>000878</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3544</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>008132</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>鹏华价值驱动混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009861</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合A</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009862</t>
+          <t>000879</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华新兴成长混合C</t>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>75.91</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>001060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>前海开源高端装备制造灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000878</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中海医药健康产业精选灵活配置混合 - A</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000879</t>
+          <t>009862</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中海医药健康产业精选灵活配置混合 - C</t>
+          <t>鹏华新兴成长混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.60</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001060</t>
+          <t>006981</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源高端装备制造灵活配置混合</t>
+          <t>中金新医药股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>27.57</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006981</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中金新医药股票A</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007005</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中金新医药股票C</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>7.23</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>007005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>中金新医药股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>002952</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>建信多因子量化股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008132</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华价值驱动混合</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1370</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>54.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3196,4 +3197,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3519,4 +3520,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3528,7 +3529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,17 +3540,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3559,14 +3580,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3575,14 +3618,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.59</v>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3591,14 +3656,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.880000000000001</v>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3607,13 +3694,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3775,7 +3776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3786,17 +3787,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3806,14 +3827,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3822,14 +3917,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -3838,14 +3933,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.59</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -3854,14 +3949,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>8.880000000000001</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="6">
@@ -3870,13 +3965,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3870,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3881,17 +3882,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3901,14 +3922,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -3917,14 +4012,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3933,14 +4028,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -3949,14 +4044,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5.59</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -3965,14 +4060,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>8.880000000000001</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="7">
@@ -3981,13 +4076,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>5.59</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>8.880000000000001</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.13</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0458</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -760,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -788,6 +805,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1033,7 +1144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1355,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2513,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3215,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300463-迈克生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,11 +490,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0.05</v>
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>5.59</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>8.880000000000001</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,922 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>139.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5700</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3453</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1592,102 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>90.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0458</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -777,26 +1762,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0458</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -871,26 +1856,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>94.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -899,6 +1884,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1144,7 +2223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1466,7 +2545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2624,7 +3703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3324,896 +4403,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>206009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>139.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.2784</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009861</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>71.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6913</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>110023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达医疗保健行业混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>53.10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.5700</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000878</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中海医药健康产业精选灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4493</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>42.92</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3453</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005967</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华创新驱动混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1380</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1348</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000879</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中海医药健康产业精选灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1043</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0804</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006981</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中金新医药股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0714</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002305</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009862</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华新兴成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>65.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003241</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007005</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中金新医药股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.48</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007499</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003242</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>创金合信量化发现灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>85.69</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>